--- a/forecast_summary_B08R5736B3.xlsx
+++ b/forecast_summary_B08R5736B3.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C2" t="n">
         <v>214.5156669476885</v>
       </c>
       <c r="D2" t="n">
-        <v>323.2076957181336</v>
+        <v>330.8514016988385</v>
       </c>
       <c r="E2" t="n">
         <v>319</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>129.4722997235964</v>
       </c>
       <c r="D3" t="n">
-        <v>241.2004195065533</v>
+        <v>240.4502442161421</v>
       </c>
       <c r="E3" t="n">
         <v>279</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" t="n">
         <v>57.59280676563372</v>
       </c>
       <c r="D4" t="n">
-        <v>170.7896411742004</v>
+        <v>173.9647558839942</v>
       </c>
       <c r="E4" t="n">
         <v>269</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
         <v>16.91285102472737</v>
       </c>
       <c r="D5" t="n">
-        <v>128.2190044304465</v>
+        <v>120.995455474462</v>
       </c>
       <c r="E5" t="n">
         <v>212</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
         <v>9.614333731346818</v>
       </c>
       <c r="D6" t="n">
-        <v>119.1007659005742</v>
+        <v>121.8778823991264</v>
       </c>
       <c r="E6" t="n">
         <v>172</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
         <v>23.0514661892756</v>
       </c>
       <c r="D7" t="n">
-        <v>129.7818501300014</v>
+        <v>125.952871380231</v>
       </c>
       <c r="E7" t="n">
         <v>114</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>37.22896149262601</v>
       </c>
       <c r="D8" t="n">
-        <v>149.0678226357948</v>
+        <v>148.9210188437256</v>
       </c>
       <c r="E8" t="n">
         <v>113</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
         <v>39.12318972887508</v>
       </c>
       <c r="D9" t="n">
-        <v>144.9201075598423</v>
+        <v>147.0898044475696</v>
       </c>
       <c r="E9" t="n">
         <v>102</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
         <v>32.85307600115252</v>
       </c>
       <c r="D10" t="n">
-        <v>148.2349579013784</v>
+        <v>128.7128405634618</v>
       </c>
       <c r="E10" t="n">
         <v>99</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="n">
         <v>33.76155998404587</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5859555455807</v>
+        <v>141.8300145201651</v>
       </c>
       <c r="E11" t="n">
         <v>100</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" t="n">
         <v>50.64380166909071</v>
       </c>
       <c r="D12" t="n">
-        <v>158.8016891901117</v>
+        <v>162.5722236272515</v>
       </c>
       <c r="E12" t="n">
         <v>98</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" t="n">
         <v>75.0794598287619</v>
       </c>
       <c r="D13" t="n">
-        <v>177.8003413123811</v>
+        <v>179.643720751667</v>
       </c>
       <c r="E13" t="n">
         <v>95</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>89.97919844087851</v>
       </c>
       <c r="D14" t="n">
-        <v>205.3709694467079</v>
+        <v>205.4092588378078</v>
       </c>
       <c r="E14" t="n">
         <v>92</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>87.470318890264</v>
       </c>
       <c r="D15" t="n">
-        <v>196.1454434608101</v>
+        <v>196.7773114983257</v>
       </c>
       <c r="E15" t="n">
         <v>86</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C16" t="n">
         <v>75.6330955688741</v>
       </c>
       <c r="D16" t="n">
-        <v>176.2279795287598</v>
+        <v>190.5589133178891</v>
       </c>
       <c r="E16" t="n">
         <v>88</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C17" t="n">
         <v>67.39740408621526</v>
       </c>
       <c r="D17" t="n">
-        <v>180.8091025812241</v>
+        <v>168.331346305717</v>
       </c>
       <c r="E17" t="n">
         <v>86</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" t="n">
         <v>65.92268569587431</v>
       </c>
       <c r="D18" t="n">
-        <v>173.1140056532297</v>
+        <v>172.2178527712395</v>
       </c>
       <c r="E18" t="n">
         <v>80</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C19" t="n">
         <v>63.4673141984093</v>
       </c>
       <c r="D19" t="n">
-        <v>175.6897687351912</v>
+        <v>161.4784516063227</v>
       </c>
       <c r="E19" t="n">
         <v>76</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="n">
         <v>53.15653976915802</v>
       </c>
       <c r="D20" t="n">
-        <v>166.3001992426711</v>
+        <v>162.8289744555769</v>
       </c>
       <c r="E20" t="n">
         <v>83</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" t="n">
         <v>37.99112838872708</v>
       </c>
       <c r="D21" t="n">
-        <v>144.6077677493384</v>
+        <v>150.7224564629631</v>
       </c>
       <c r="E21" t="n">
         <v>76</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550M DS3H AC</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1738</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>881</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>598</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>261</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
     </row>
